--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242617.8459588384</v>
+        <v>-245586.3747223303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692571</v>
+        <v>7757679.400320137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13326380.61574354</v>
+        <v>13327124.03633654</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>17.09300973225717</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>97.60909373830067</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>253.9277553818582</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>62.51271672690382</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.6020994196531</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>10.10581259942155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>200.4126510055117</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>160.669177482782</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>125.3787979092682</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>73.72838661474171</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881749</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.37405632729994</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.8206898353888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>105.7830413134594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>206.7472017268233</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>94.87954332650926</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.34820660055867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>13.89072837997179</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>68.19691857157318</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>164.7892918153074</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668623</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>130.3899231758517</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>140.8993768737599</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0026623904567</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>173.7563573079755</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>29.00134239365498</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.4068132192025</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672379</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>72.01170926062075</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.55410938283686</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.6947878603132</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3560,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>326.2152140927927</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668792</v>
+        <v>175.5610162827835</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835698</v>
+        <v>162.9758571994741</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031543</v>
+        <v>8.731369890614403</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315111</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>17.49967760338793</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.2710889780132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.1830258928001</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602551</v>
+        <v>62.90978769192981</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434009</v>
+        <v>177.0675244593052</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477037</v>
+        <v>213.211030563608</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333624</v>
+        <v>281.9144876492667</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087699</v>
+        <v>247.8666794246742</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215329</v>
+        <v>282.2520344374373</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739791</v>
+        <v>221.4386914898834</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370367</v>
+        <v>214.313689452941</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839572</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002294</v>
+        <v>140.4471302624978</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772833</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624963</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772833</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762914</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>816.3671762823941</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>398.403368180581</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>71.20864821658381</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.523196977305</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.057438716225</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.918106740413</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W4" t="n">
-        <v>257.3478788207</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>862.2456681961786</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>444.2818600943655</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>117.0871401303683</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2672.298485543826</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2496.120997857996</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2496.120997857996</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2496.120997857996</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2496.120997857996</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2496.120997857996</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>2122.655239596916</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.515907621104</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.921092691867</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.921092691867</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.921092691867</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>211.4036268380756</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1371.274936282423</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C8" t="n">
-        <v>1371.274936282423</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D8" t="n">
-        <v>1013.009237675673</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>627.2209850774286</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>216.2350802878211</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.274936282423</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>653.6558664137658</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5051,40 +5051,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689406</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410337</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>390.364075528698</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1943.844419309451</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1722.077803878977</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1432.974937004621</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>1432.974937004621</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745028</v>
+        <v>1432.974937004621</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.308483745028</v>
+        <v>1204.985386106604</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.0653626991804</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.238303939012</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.6340846510827</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="C16" t="n">
-        <v>686.6979017231758</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108402</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1849.491909222421</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1627.725293791947</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1627.725293791947</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1373.040805586061</v>
+        <v>955.1220850844056</v>
       </c>
       <c r="W16" t="n">
-        <v>1083.6236355491</v>
+        <v>665.704915047445</v>
       </c>
       <c r="X16" t="n">
-        <v>855.6340846510827</v>
+        <v>665.704915047445</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.6340846510827</v>
+        <v>444.9123359039148</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604873</v>
@@ -5558,7 +5558,7 @@
         <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.8310435707792</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8948606428723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442064</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5707,16 +5707,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208127</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208127</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>771.1140605227954</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.479508401019</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5768,28 +5768,28 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5826,37 +5826,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>278.5282561439496</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>109.5920732160427</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>109.5920732160427</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>109.5920732160427</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>109.5920732160427</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1797.627232527309</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1575.860617096835</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1286.757750222479</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.757750222479</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.757750222479</v>
+        <v>908.9588510157367</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.768199324461</v>
+        <v>680.9693001177194</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.768199324461</v>
+        <v>460.1767209741893</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1687.484443350884</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1568.123020557758</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V25" t="n">
-        <v>1313.438532351871</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1024.021362314911</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>796.0318114168932</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>575.239232273363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,22 +6227,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942217</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663148</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>558.066912153979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1602.869857567309</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.185369361422</v>
+        <v>1111.465496723912</v>
       </c>
       <c r="W28" t="n">
-        <v>1058.768199324461</v>
+        <v>822.0483266869514</v>
       </c>
       <c r="X28" t="n">
-        <v>1058.768199324461</v>
+        <v>594.0587757889342</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143013</v>
@@ -6449,64 +6449,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427196</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196075</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025904</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,22 +6570,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>851.3470556529301</v>
+        <v>414.6138567886372</v>
       </c>
       <c r="C31" t="n">
-        <v>686.6979017231758</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E31" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6649,22 +6649,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.7880996267</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.7880996267</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.7880996267</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X31" t="n">
-        <v>1253.7880996267</v>
+        <v>817.054900762407</v>
       </c>
       <c r="Y31" t="n">
-        <v>1032.99552048317</v>
+        <v>596.2623216188769</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6704,31 +6704,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>590.1253288168954</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>421.1891458889885</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>271.0725064766528</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0725064766528</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>271.0725064766528</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6886,22 +6886,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1509.973093725643</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.555923688682</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>992.5663727906652</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>771.7737936471351</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672751</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K35" t="n">
-        <v>892.1898736074438</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L35" t="n">
-        <v>1511.709654113219</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2232.714216052256</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671633</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865885</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752796</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>302.0575440967218</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>792.7898769404732</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.808231192601</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.904194591937</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.780669592131</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.6800857492863</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>395.8548006841024</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>323.1157004208493</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>323.1157004208493</v>
+        <v>178.2464384373002</v>
       </c>
       <c r="F37" t="n">
-        <v>176.336650785662</v>
+        <v>178.2464384373002</v>
       </c>
       <c r="G37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985992</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769882</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813948</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194098</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2247.191049795751</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2027.623165372856</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1738.657849550306</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.084259207142</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.777987032904</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>966.89933399761</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>746.2176527168029</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.203094298863</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.434439028749</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.968680767669</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4646447998178</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>571.9733873631765</v>
+        <v>198.8209117892287</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.705720206928</v>
+        <v>689.55324463298</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.724074459055</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.724074459055</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O39" t="n">
-        <v>2201.60054945925</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.8493997364801</v>
+        <v>567.7486935666597</v>
       </c>
       <c r="C40" t="n">
-        <v>401.1164238944904</v>
+        <v>403.1266155873928</v>
       </c>
       <c r="D40" t="n">
-        <v>255.2029915680719</v>
+        <v>394.3070500413175</v>
       </c>
       <c r="E40" t="n">
-        <v>111.493105071596</v>
+        <v>394.3070500413175</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>394.3070500413175</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>231.4069601645365</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024331</v>
+        <v>177.0587253013232</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379045</v>
+        <v>440.9157065320491</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859464</v>
+        <v>832.9057788753455</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095313</v>
+        <v>1256.363625179967</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151928</v>
+        <v>1675.287745231836</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431865</v>
+        <v>2046.538456507028</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532977</v>
+        <v>2341.297145603395</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351319</v>
+        <v>2463.238533416992</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395738</v>
+        <v>2399.693293324134</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.714199220585</v>
+        <v>2220.837208011704</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.238624020884</v>
+        <v>2005.472530674727</v>
       </c>
       <c r="U40" t="n">
-        <v>1719.365617421528</v>
+        <v>1720.710421938094</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.884336301559</v>
+        <v>1470.340038680847</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.670373350516</v>
+        <v>1185.236973592526</v>
       </c>
       <c r="X40" t="n">
-        <v>959.8840295384155</v>
+        <v>961.5615276431491</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.2946574808026</v>
+        <v>745.0830534482592</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2231.709843710093</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>921.9831621891603</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427389</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118886</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.062466310981</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945561</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506189</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443886</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371967</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337915</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891585</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>778.395385942737</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118867</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109791</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945541</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604303</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277197</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8699,10 +8699,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9641,22 +9641,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>85.51392558917598</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>338.5992815305709</v>
+        <v>374.169394802195</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>180.7381496078607</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K35" t="n">
-        <v>49.74439522492634</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N38" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>177.394969004142</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.76396351670601</v>
+        <v>218.5846533520978</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>83.98598401798249</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>45.39044159700468</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004561</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>130.8301120625279</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.2364467515361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>152.1350798790564</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5721067598687</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>121.4225463903055</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.14213605696568</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,22 +24649,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8219150297611</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>111.2382664500681</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.24415870817117</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.79259196819362</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>137.0244658653732</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696666</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>76.49397487349579</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>81.98794349433007</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698773</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>135.6131392284442</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.1629987474154</v>
       </c>
       <c r="F40" t="n">
-        <v>123.7601954044853</v>
+        <v>141.1500841237775</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621089</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768959</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935098</v>
+        <v>77.53361284525528</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.438849039914203e-12</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1133697.726317262</v>
+        <v>1133628.504771136</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1136943.092742689</v>
+        <v>1137049.764161002</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1153118.141600071</v>
+        <v>1153730.81461515</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1153118.141600071</v>
+        <v>1153730.81461515</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524996</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>287364.6194524994</v>
       </c>
-      <c r="D2" t="n">
-        <v>287364.6194524995</v>
-      </c>
       <c r="E2" t="n">
+        <v>277957.2508208882</v>
+      </c>
+      <c r="F2" t="n">
         <v>277957.2508208881</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>277957.2508208882</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>277957.2508208881</v>
-      </c>
-      <c r="H2" t="n">
-        <v>277957.2508208882</v>
       </c>
       <c r="I2" t="n">
         <v>277957.2508208883</v>
       </c>
       <c r="J2" t="n">
+        <v>277957.2508208881</v>
+      </c>
+      <c r="K2" t="n">
         <v>277957.2508208882</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>277957.2508208881</v>
       </c>
-      <c r="L2" t="n">
-        <v>277957.2508208882</v>
-      </c>
       <c r="M2" t="n">
-        <v>282361.0286120505</v>
+        <v>282339.0419914958</v>
       </c>
       <c r="N2" t="n">
-        <v>283172.3702184073</v>
+        <v>283194.356838962</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.619452499</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485552</v>
+        <v>312970.016023357</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769627</v>
+        <v>3416.771119323007</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.938396684</v>
+        <v>16659.16697241346</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709189</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="M4" t="n">
-        <v>5156.962217674893</v>
+        <v>5069.915760662967</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725529</v>
+        <v>6475.275729222381</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591958996</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591958991</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008167</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577668.9342178844</v>
+        <v>-577668.9342178841</v>
       </c>
       <c r="C6" t="n">
-        <v>12298.94499666024</v>
+        <v>12298.94499666014</v>
       </c>
       <c r="D6" t="n">
-        <v>12298.94499666031</v>
+        <v>12298.94499666023</v>
       </c>
       <c r="E6" t="n">
-        <v>-567423.2894233241</v>
+        <v>-567490.4849135496</v>
       </c>
       <c r="F6" t="n">
-        <v>159954.1245700827</v>
+        <v>159886.9290798568</v>
       </c>
       <c r="G6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.9290798569</v>
       </c>
       <c r="H6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.9290798568</v>
       </c>
       <c r="I6" t="n">
-        <v>159954.1245700827</v>
+        <v>159886.929079857</v>
       </c>
       <c r="J6" t="n">
-        <v>-16469.09462251027</v>
+        <v>-16536.29011273625</v>
       </c>
       <c r="K6" t="n">
-        <v>159954.1245700825</v>
+        <v>159886.9290798569</v>
       </c>
       <c r="L6" t="n">
-        <v>159954.1245700828</v>
+        <v>159886.9290798568</v>
       </c>
       <c r="M6" t="n">
-        <v>-136670.2686743524</v>
+        <v>-136666.8262316271</v>
       </c>
       <c r="N6" t="n">
-        <v>172185.4065550954</v>
+        <v>171983.4272790434</v>
       </c>
       <c r="O6" t="n">
-        <v>148924.0573021484</v>
+        <v>154338.3120539642</v>
       </c>
       <c r="P6" t="n">
-        <v>171751.9956988322</v>
+        <v>170997.4790263779</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26756,13 +26756,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.05138613096223</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698166</v>
+        <v>20.82395871551682</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>134.8383065126041</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>251.6318749791124</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>52.82756747470452</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>32.59524295473281</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>89.41859951795743</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>29.8763031551586</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>19.01693735549276</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>69.82361682150315</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>253.114992538013</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>23.23667510894418</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>138.4171523352772</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.98632585327141e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.719513420539442e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958194</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="C40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="D40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="E40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="F40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="G40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="H40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="I40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="J40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="K40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="L40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="M40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="N40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="O40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="P40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="R40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="S40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="T40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="U40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="V40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="W40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="X40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.16117501505805</v>
+        <v>4.270963899153759</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,31 +33728,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>348.1857632660256</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>243.8743315376132</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745724</v>
@@ -33983,16 +33983,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>489.7119024980491</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34059,7 +34059,7 @@
         <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
         <v>374.7525405416874</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>459.3304791170305</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35419,10 +35419,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M23" t="n">
-        <v>624.4350414194028</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36519,22 +36519,22 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>846.65228241879</v>
+        <v>882.2223956904141</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>733.0399850207722</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K35" t="n">
-        <v>524.1185202629889</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>210.3443242916666</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475634</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N38" t="n">
-        <v>794.4766961512966</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
         <v>689.7596327870084</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>106.0328925632542</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946982</v>
@@ -37631,16 +37631,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>355.7374950837189</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571854</v>
+        <v>84.05088600981425</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792638</v>
+        <v>266.5222032633595</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394361</v>
+        <v>395.9495680235318</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034009</v>
+        <v>427.7351982874965</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359741</v>
+        <v>423.1556768200698</v>
       </c>
       <c r="O40" t="n">
-        <v>374.890929575694</v>
+        <v>375.0007184597897</v>
       </c>
       <c r="P40" t="n">
-        <v>297.626260708194</v>
+        <v>297.7360495922896</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195379</v>
+        <v>123.1731190036336</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
